--- a/files/отчет по таймеру.xlsx
+++ b/files/отчет по таймеру.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>Количество выданных книг:</t>
   </si>
@@ -21,6 +21,12 @@
   </si>
   <si>
     <t>Должники:</t>
+  </si>
+  <si>
+    <t>Andreev</t>
+  </si>
+  <si>
+    <t>Andrey</t>
   </si>
 </sst>
 </file>
@@ -72,7 +78,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="26.94140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="2.07421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.44140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -80,7 +86,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="2">
@@ -88,7 +94,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -96,6 +102,42 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/files/отчет по таймеру.xlsx
+++ b/files/отчет по таймеру.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Количество выданных книг:</t>
   </si>
@@ -94,7 +94,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -111,33 +111,6 @@
       </c>
       <c r="C4"/>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/files/отчет по таймеру.xlsx
+++ b/files/отчет по таймеру.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Количество выданных книг:</t>
   </si>
@@ -21,12 +21,6 @@
   </si>
   <si>
     <t>Должники:</t>
-  </si>
-  <si>
-    <t>Andreev</t>
-  </si>
-  <si>
-    <t>Andrey</t>
   </si>
 </sst>
 </file>
@@ -78,7 +72,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="26.94140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="2.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -86,7 +80,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
@@ -94,7 +88,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -102,15 +96,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
